--- a/Northwestern Branding/NU Colors.xlsx
+++ b/Northwestern Branding/NU Colors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuwildcat-my.sharepoint.com/personal/adw4394_ads_northwestern_edu/Documents/Documents/GitHub/wildcat/Northwestern Branding/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\OneDrive - Northwestern University\Documents\GitHub\wildcat\Northwestern Branding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{609C8143-D9DE-473C-91A1-24DD2E7745E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD04769B-0833-4ABF-B227-AB310EA1800F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB136315-BF3C-48E3-B42A-AA81EDD99CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="2595" windowWidth="24510" windowHeight="13710" xr2:uid="{D740DFA1-8373-40E7-8C15-C26DA30871C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{D740DFA1-8373-40E7-8C15-C26DA30871C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>color</t>
   </si>
@@ -204,9 +204,6 @@
     <t>216, 088, 032</t>
   </si>
   <si>
-    <t>tex</t>
-  </si>
-  <si>
     <t>000, 127, 164</t>
   </si>
   <si>
@@ -217,6 +214,12 @@
   </si>
   <si>
     <t>013, 045, 108</t>
+  </si>
+  <si>
+    <t>LaTeX</t>
+  </si>
+  <si>
+    <t>Stata</t>
   </si>
 </sst>
 </file>
@@ -574,18 +577,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4A4CE9-70EA-4A1A-92A3-641B5420EA5E}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -593,10 +597,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -608,7 +615,7 @@
         <v>\definecolor{nupurple}{RGB}{078, 042, 132}</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -620,7 +627,7 @@
         <v>\definecolor{nupurple90}{RGB}{91, 59, 140}</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -632,7 +639,7 @@
         <v>\definecolor{nupurple80}{RGB}{104, 076, 150}</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -644,7 +651,7 @@
         <v>\definecolor{nupurple70}{RGB}{118, 093, 160}</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -656,7 +663,7 @@
         <v>\definecolor{nupurple60}{RGB}{131, 110, 170}</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -668,7 +675,7 @@
         <v>\definecolor{nupurple50}{RGB}{147, 128, 182}</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -680,7 +687,7 @@
         <v>\definecolor{nupurple40}{RGB}{164, 149, 195}</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -692,7 +699,7 @@
         <v>\definecolor{nupurple30}{RGB}{182, 172, 209}</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -704,7 +711,7 @@
         <v>\definecolor{nupurple20}{RGB}{204, 196, 223}</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -716,7 +723,7 @@
         <v>\definecolor{nupurple10}{RGB}{228, 224, 238}</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -728,7 +735,7 @@
         <v>\definecolor{nupurple160}{RGB}{029, 002, 053}</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -740,31 +747,31 @@
         <v>\definecolor{nupurple150}{RGB}{038, 008, 065}</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
         <v>\definecolor{nupurple140}{RGB}{048, 016, 078}</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v>\definecolor{nupurple130}{RGB}{056, 023, 090}</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -889,7 +896,7 @@
         <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -901,7 +908,7 @@
         <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
